--- a/Document/210927일정표.xlsx
+++ b/Document/210927일정표.xlsx
@@ -1,31 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\hanagen2021_02\포폴\210927\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C90062-DC26-4846-9DD7-9D8976952E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7529812F-FD1E-4599-9179-B85F73F5EBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>10월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -123,10 +130,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(*9월 연장)마을 씬과 거주구역 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(*9월 연장)주민 추가 및 거주구역 내 시스템 제작</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -168,6 +171,18 @@
   </si>
   <si>
     <t>(9월 29일 완료)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(10월 3일 완료)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(10월 4일 완료)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+)전체 공용 UI로 변경</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +286,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -316,7 +337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -363,6 +384,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,7 +675,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -803,7 +830,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="P4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -847,7 +874,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="AD6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
@@ -865,7 +892,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="AD7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
@@ -873,7 +900,7 @@
         <v>6</v>
       </c>
       <c r="AD8" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
@@ -914,7 +941,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>44470</v>
@@ -1015,7 +1042,7 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -1023,7 +1050,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
@@ -1041,14 +1068,16 @@
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="B16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -1058,14 +1087,14 @@
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
@@ -1073,14 +1102,12 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="17"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
       <c r="K18" s="14"/>

--- a/Document/210927일정표.xlsx
+++ b/Document/210927일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\hanagen2021_02\포폴\210927\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7529812F-FD1E-4599-9179-B85F73F5EBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0007EA-975F-4761-8CE7-D0996F4E41D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>10월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -138,14 +138,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2차 백신 접종으로 휴식 &amp; 기말고사 기간이랑 자격증 시험이 있어서 상황을 좀 봐야할듯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자격증 시험 있어서 수행 여부는 불확실</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(저번 수업에 들은 조언 코드는 적용함)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -162,14 +154,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>원래 10월 12일이었는데 교양때문에 5일로 바꾸었는데</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기말이랑 겹쳐서 여기저기 문의해보다 7일로 변경…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(9월 29일 완료)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -183,6 +167,26 @@
   </si>
   <si>
     <t>(+)전체 공용 UI로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백신 맞아서 작업 느림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+)외부 파일 저장/불러오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -276,12 +280,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -289,6 +287,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,19 +381,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -672,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -811,10 +815,10 @@
       <c r="AA3" s="11"/>
       <c r="AB3" s="11"/>
       <c r="AC3" s="11"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -830,7 +834,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="P4" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
@@ -874,7 +878,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="AD6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
@@ -892,19 +896,19 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="AD7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="AD8" s="15" t="s">
-        <v>34</v>
+      <c r="AD8" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
-      <c r="AG8" s="14"/>
+      <c r="AG8" s="13"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -915,9 +919,9 @@
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
       <c r="AG9" s="6"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
@@ -941,7 +945,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1">
         <v>44470</v>
@@ -1041,47 +1045,46 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
+      <c r="B16" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1091,157 +1094,135 @@
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="G17" s="13"/>
-      <c r="H17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
+        <v>8</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
@@ -1255,67 +1236,96 @@
       <c r="AD22" s="13"/>
       <c r="AE22" s="13"/>
       <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Document/210927일정표.xlsx
+++ b/Document/210927일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\hanagen2021_02\포폴\210927\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0007EA-975F-4761-8CE7-D0996F4E41D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71817036-3AE2-4035-A317-8AEC5A709629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>10월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -170,10 +170,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>백신 맞아서 작업 느림</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>대면</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -187,6 +183,30 @@
   </si>
   <si>
     <t>진행중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬 기말 과제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백신 맞고 쉬었음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속해서 유니티 손도 못댐;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이너리 저장 오류나서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(+)1차 기초 최적화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -676,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AG26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1051,19 +1071,25 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="L15" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="M15" s="11"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
@@ -1080,11 +1106,17 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
+      <c r="L16" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -1095,13 +1127,18 @@
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1119,8 +1156,6 @@
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -1138,109 +1173,93 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
+      <c r="Q19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" s="15"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
+        <v>42</v>
+      </c>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>15</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
@@ -1269,7 +1288,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
@@ -1299,7 +1318,7 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
@@ -1327,6 +1346,36 @@
       <c r="AF25" s="12"/>
       <c r="AG25" s="12"/>
     </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
